--- a/datasets/poblacion.xlsx
+++ b/datasets/poblacion.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_1f3a\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delfi\Downloads\delfina local\PI2_DA_SiniestrosViales_Delfina\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D50AD6A-B72A-0543-9777-D468047BFE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="poblacion" sheetId="1" r:id="rId1"/>
     <sheet name="p total" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Comuna</t>
   </si>
@@ -56,15 +55,21 @@
   <si>
     <t>2021</t>
   </si>
+  <si>
+    <t>AAAA</t>
+  </si>
+  <si>
+    <t>p_total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +223,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,8 +352,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -487,6 +498,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -563,7 +609,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -577,93 +623,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="26" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="26" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="20% - Énfasis1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Énfasis2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Énfasis3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Énfasis4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Énfasis5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Énfasis6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Énfasis1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Énfasis2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Énfasis3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Énfasis4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Énfasis5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Énfasis6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Buena 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Cálculo 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Celda de comprobación 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Celda vinculada 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Encabezado 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Énfasis1 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Énfasis2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Énfasis3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Énfasis4 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Énfasis5 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Énfasis6 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Entrada 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Euro" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Incorrecto 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="mio" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Neutral 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="1"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="2"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="3"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="4"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="5"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="6"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="7"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="8"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="9"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="10"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="11"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="12"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="13"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="14"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="15"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="16"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="17"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="18"/>
+    <cellStyle name="Buena 2" xfId="19"/>
+    <cellStyle name="Cálculo 2" xfId="20"/>
+    <cellStyle name="Celda de comprobación 2" xfId="21"/>
+    <cellStyle name="Celda vinculada 2" xfId="22"/>
+    <cellStyle name="Encabezado 4 2" xfId="23"/>
+    <cellStyle name="Énfasis1 2" xfId="24"/>
+    <cellStyle name="Énfasis2 2" xfId="25"/>
+    <cellStyle name="Énfasis3 2" xfId="26"/>
+    <cellStyle name="Énfasis4 2" xfId="27"/>
+    <cellStyle name="Énfasis5 2" xfId="28"/>
+    <cellStyle name="Énfasis6 2" xfId="29"/>
+    <cellStyle name="Entrada 2" xfId="30"/>
+    <cellStyle name="Euro" xfId="31"/>
+    <cellStyle name="Incorrecto 2" xfId="32"/>
+    <cellStyle name="mio" xfId="33"/>
+    <cellStyle name="Neutral 2" xfId="34"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal 11" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal 12" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 13" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 14" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 15" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normal 16" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 2 14" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Normal 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Normal 5" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Normal 6" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Normal 7" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Normal 7 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Normal 8" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Normal 9" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Notas 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Pato" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Salida 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="tabla1" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="tabla2" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Texto de advertencia 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Texto explicativo 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Título 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Título 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Título 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Título 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Total 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normal 10" xfId="35"/>
+    <cellStyle name="Normal 11" xfId="36"/>
+    <cellStyle name="Normal 12" xfId="37"/>
+    <cellStyle name="Normal 13" xfId="38"/>
+    <cellStyle name="Normal 14" xfId="39"/>
+    <cellStyle name="Normal 15" xfId="40"/>
+    <cellStyle name="Normal 16" xfId="41"/>
+    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2 14" xfId="43"/>
+    <cellStyle name="Normal 2 2" xfId="44"/>
+    <cellStyle name="Normal 3" xfId="45"/>
+    <cellStyle name="Normal 4" xfId="46"/>
+    <cellStyle name="Normal 5" xfId="47"/>
+    <cellStyle name="Normal 6" xfId="48"/>
+    <cellStyle name="Normal 7" xfId="49"/>
+    <cellStyle name="Normal 7 2" xfId="50"/>
+    <cellStyle name="Normal 8" xfId="51"/>
+    <cellStyle name="Normal 9" xfId="52"/>
+    <cellStyle name="Notas 2" xfId="53"/>
+    <cellStyle name="Pato" xfId="54"/>
+    <cellStyle name="Salida 2" xfId="55"/>
+    <cellStyle name="tabla1" xfId="56"/>
+    <cellStyle name="tabla2" xfId="57"/>
+    <cellStyle name="Texto de advertencia 2" xfId="58"/>
+    <cellStyle name="Texto explicativo 2" xfId="59"/>
+    <cellStyle name="Título 1 2" xfId="60"/>
+    <cellStyle name="Título 2 2" xfId="61"/>
+    <cellStyle name="Título 3 2" xfId="62"/>
+    <cellStyle name="Título 4" xfId="63"/>
+    <cellStyle name="Total 2" xfId="64"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -679,7 +747,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -705,7 +772,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -731,7 +797,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -757,7 +822,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -783,7 +847,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -809,7 +872,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -835,7 +897,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -870,7 +931,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -902,7 +962,6 @@
         <sz val="9"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -927,40 +986,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A7ED582-1534-204B-9783-864FDE39DA85}" name="Tabla1" displayName="Tabla1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:G16" xr:uid="{5A7ED582-1534-204B-9783-864FDE39DA85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G16" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:G16"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{884CFE14-0424-AF4F-A23C-197439E2CD8F}" name="Comuna" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{1996970B-1BDF-F345-A97F-87D23574A927}" name="2016" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{22FF9486-089F-474C-9A7C-3D791F7C49C0}" name="2017" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" xr3:uid="{38705C88-1986-0B4F-B356-A8EFC666B172}" name="2018" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{12DF834D-B7B0-6443-A3D2-69D23DACCB2E}" name="2019" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" xr3:uid="{AE1471D9-2CE6-0543-8A58-E88AE7856723}" name="2020" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{B660217F-A943-DC45-B91C-2E1556AC6640}" name="2021" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Comuna" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="2016" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="2017" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="2018" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="2019" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" name="2020" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" name="2021" dataDxfId="2" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5CEE3E52-4CA5-6948-847B-5C39A40B0C61}" name="Tabla2" displayName="Tabla2" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{5CEE3E52-4CA5-6948-847B-5C39A40B0C61}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B35D593C-6E10-6148-A464-6DEC0EF8D8CC}" name="2016" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{E9E58B0F-5C8A-3E46-8155-13F2203CD561}" name="2017" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{CE0293EA-2902-7747-A576-AAC09C3BB22F}" name="2018" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BD28BCE6-DC3D-B74A-86C0-8CDA4A8FADD0}" name="2019" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{24D0F3C7-C343-3448-A201-C7E5756E9997}" name="2020" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{341AB015-F18E-304D-A84F-CC50CCE0FF5E}" name="2021" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="AAAA" dataDxfId="0"/>
+    <tableColumn id="2" name="p_total" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -998,9 +1053,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1035,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,7 +1125,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1243,21 +1298,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.43359375" customWidth="1"/>
-    <col min="2" max="17" width="9.68359375" customWidth="1"/>
-    <col min="18" max="256" width="11.43359375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1303,7 +1358,7 @@
         <v>257235</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>149371</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1349,7 +1404,7 @@
         <v>193425</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1372,7 +1427,7 @@
         <v>240437</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1395,7 +1450,7 @@
         <v>187670</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1418,7 +1473,7 @@
         <v>185620</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1441,7 +1496,7 @@
         <v>242188</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1464,7 +1519,7 @@
         <v>229541</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1487,7 +1542,7 @@
         <v>171444</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1510,7 +1565,7 @@
         <v>170677</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1533,7 +1588,7 @@
         <v>190105</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1556,7 +1611,7 @@
         <v>215002</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1579,7 +1634,7 @@
         <v>236468</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1602,7 +1657,7 @@
         <v>227168</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1625,7 +1680,7 @@
         <v>182485</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="23" alignment="center"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1637,55 +1692,71 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ECFAAD-DCBC-DF40-9CA7-AC21BB11165B}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="5">
         <v>3059122</v>
       </c>
-      <c r="B2" s="5">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="6">
         <v>3063728</v>
       </c>
-      <c r="C2" s="5">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="6">
         <v>3068043</v>
       </c>
-      <c r="D2" s="5">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="6">
         <v>3072029</v>
       </c>
-      <c r="E2" s="5">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="6">
         <v>3075646</v>
       </c>
-      <c r="F2" s="5">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="7">
         <v>3078836</v>
       </c>
     </row>
